--- a/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
+++ b/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\研修資料\6月_WEBアプリ開発演習コース\ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\E6\documents\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FE5CA738-1729-4E38-A16E-3ACAAF0B60D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97EA0C9-3133-4CE3-8913-0625CF6DE1A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4785A2B-3277-47CD-BFF3-6E3B1E9BA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="3252" windowWidth="17280" windowHeight="9960" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -439,13 +439,30 @@
   <si>
     <t>)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信者番号</t>
+    <rPh sb="0" eb="3">
+      <t>ジュシンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receiver_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users.regist_number を参照</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,7 +574,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,21 +885,21 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.149999999999999">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -896,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -910,7 +927,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
@@ -926,7 +943,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -943,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -958,7 +975,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -973,7 +990,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -988,7 +1005,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -997,7 +1014,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1006,7 +1023,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1015,7 +1032,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1024,7 +1041,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1033,7 +1050,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1042,7 +1059,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1051,7 +1068,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1060,7 +1077,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1069,7 +1086,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1078,7 +1095,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1087,7 +1104,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1096,7 +1113,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1105,7 +1122,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1114,7 +1131,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1123,7 +1140,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1132,7 +1149,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1141,7 +1158,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1150,7 +1167,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1159,7 +1176,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1168,7 +1185,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1177,7 +1194,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1186,7 +1203,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1195,7 +1212,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1204,7 +1221,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1213,7 +1230,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1222,7 +1239,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1231,7 +1248,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1255,22 +1272,22 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.149999999999999">
+    <row r="1" spans="1:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1315,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1312,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1343,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="39.6">
+    <row r="8" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1390,7 @@
         <v>create table users (</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1402,7 +1419,7 @@
         <v>regist_number int  primary key,</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1431,7 +1448,7 @@
         <v>mail varchar (100) not null,</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1460,7 +1477,7 @@
         <v>password varchar (255) not null,</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>name varchar (100) not null,</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1518,7 +1535,7 @@
         <v>company varchar (100) not null</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1537,7 +1554,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1556,7 +1573,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1575,7 +1592,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1594,7 +1611,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1613,7 +1630,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1651,7 +1668,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1670,7 +1687,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1689,7 +1706,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1708,7 +1725,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1727,7 +1744,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1746,7 +1763,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1765,7 +1782,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1784,7 +1801,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1803,7 +1820,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>50</v>
       </c>
@@ -1822,15 +1839,15 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.149999999999999">
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1875,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,7 +1889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +1903,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1944,7 +1961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1966,7 +1983,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1988,7 +2005,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2010,7 +2027,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2024,7 +2041,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2038,7 +2055,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2052,7 +2069,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2066,7 +2083,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2080,7 +2097,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2094,7 +2111,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2108,7 +2125,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2122,7 +2139,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2136,7 +2153,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2150,7 +2167,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2164,7 +2181,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2178,7 +2195,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2192,7 +2209,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2206,7 +2223,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2220,7 +2237,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2245,25 +2262,25 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.149999999999999">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2277,7 +2294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2305,7 +2322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2336,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2372,7 @@
         <v>create table send (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2383,7 +2400,7 @@
         <v>id int  primary key auto_increment,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2411,7 +2428,7 @@
         <v>regist_number int  auto_increment,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2439,7 +2456,7 @@
         <v>send_date datetime  default CURRENT_TIMESTAMP,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2465,7 +2482,7 @@
         <v>comment varchar (3000),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2488,28 +2505,38 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>send_coin int  default 0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>send_coin int  default 0,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>receiver_number int  auto_increment</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2527,7 +2554,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2545,7 +2572,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2563,7 +2590,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2581,7 +2608,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2599,7 +2626,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2617,7 +2644,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2635,7 +2662,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2653,7 +2680,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2671,7 +2698,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2689,7 +2716,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2707,7 +2734,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2725,7 +2752,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2743,7 +2770,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2761,7 +2788,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>69</v>
       </c>

--- a/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
+++ b/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\E6\documents\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4785A2B-3277-47CD-BFF3-6E3B1E9BA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA689DD-5423-4CD7-9F09-F159DCC6B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -453,9 +453,6 @@
   <si>
     <t>receiver_number</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>users.regist_number を参照</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2259,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2523,17 +2520,13 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>receiver_number int  auto_increment</v>
+        <v xml:space="preserve">receiver_number int </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">

--- a/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
+++ b/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\E6\documents\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA689DD-5423-4CD7-9F09-F159DCC6B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C56A1C-1726-4B81-89FD-02366C89A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -2259,7 +2259,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2412,17 +2412,13 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="J11" s="8"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>regist_number int  auto_increment,</v>
+        <v>regist_number int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
+++ b/documents/外部設計書/02_データベース設計書_雨天決行 完成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\E6\documents\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C56A1C-1726-4B81-89FD-02366C89A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C8B79E-C533-441E-930C-95699A8DA9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -379,10 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>recive_coin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ランキングコイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,6 +448,10 @@
   </si>
   <si>
     <t>receiver_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receive_coin</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1832,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAB542C-A9D2-4638-8404-AC0E33113452}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1988,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
@@ -2007,10 +2007,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -2258,7 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6327AF-356A-4BB1-ABB0-F6F704A795B2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2374,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -2426,23 +2426,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2454,10 +2454,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -2480,10 +2480,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>37</v>
@@ -2506,10 +2506,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
